--- a/data/trans_orig/P19D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07914A4-626B-43D9-8111-E589786BB3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAEDEAF4-2FB5-440D-991F-21C2F9259AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA3EB0E5-569C-4B4D-B3E3-08DC2EFCD4C5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65B26055-6605-4A3A-9B55-E0A98D1F999C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="444">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -107,25 +107,25 @@
     <t>86,03%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>85,94%</t>
+    <t>86,04%</t>
   </si>
   <si>
     <t>89,3%</t>
@@ -137,1282 +137,1240 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
     <t>3,54%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>90,31%</t>
   </si>
   <si>
     <t>93,14%</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE85B593-2AC6-4293-A381-39BE290258C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CB7BA4-8C50-4D2C-B1FD-ECB87276CADE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2134,10 +2092,10 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2110,13 @@
         <v>690204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>947</v>
@@ -2167,13 +2125,13 @@
         <v>958959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>1644</v>
@@ -2182,18 +2140,18 @@
         <v>1649162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2163,13 @@
         <v>1764</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2220,13 +2178,13 @@
         <v>1923</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2235,13 +2193,13 @@
         <v>3687</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2265,13 @@
         <v>22722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2322,13 +2280,13 @@
         <v>23280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -2337,13 +2295,13 @@
         <v>46002</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2316,13 @@
         <v>73487</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -2373,13 +2331,13 @@
         <v>81468</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -2388,13 +2346,13 @@
         <v>154955</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,13 +2367,13 @@
         <v>1314448</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>1344</v>
@@ -2424,13 +2382,13 @@
         <v>1373195</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>2625</v>
@@ -2439,18 +2397,18 @@
         <v>2687643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2462,13 +2420,13 @@
         <v>871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2513,10 +2471,10 @@
         <v>411703</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>90</v>
@@ -2582,10 +2540,10 @@
         <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2594,13 +2552,13 @@
         <v>41491</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,10 +2591,10 @@
         <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2645,13 +2603,13 @@
         <v>26326</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2624,13 @@
         <v>452432</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
@@ -2681,13 +2639,13 @@
         <v>408783</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>819</v>
@@ -2696,13 +2654,13 @@
         <v>861215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,10 +2680,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2734,13 +2692,13 @@
         <v>6796</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2749,13 +2707,13 @@
         <v>9431</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2728,13 @@
         <v>2221956</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>2447</v>
@@ -2785,13 +2743,13 @@
         <v>2500664</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>4627</v>
@@ -2800,13 +2758,13 @@
         <v>4722620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2779,13 @@
         <v>55875</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -2836,13 +2794,13 @@
         <v>49688</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>101</v>
@@ -2851,13 +2809,13 @@
         <v>105564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2830,13 @@
         <v>176618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -2887,13 +2845,13 @@
         <v>183788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>351</v>
@@ -2902,13 +2860,13 @@
         <v>360406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2881,13 @@
         <v>2457084</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>2679</v>
@@ -2938,13 +2896,13 @@
         <v>2740937</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>5088</v>
@@ -2953,18 +2911,18 @@
         <v>5198021</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59E0CEC-1EBE-435E-8E2A-9F046134505B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764CEA3E-768C-43F8-890D-A76808DC3B46}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3000,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3107,13 +3065,13 @@
         <v>1010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3128,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3137,13 +3095,13 @@
         <v>1010</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3116,13 @@
         <v>560193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>871</v>
@@ -3173,13 +3131,13 @@
         <v>934573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>1397</v>
@@ -3188,13 +3146,13 @@
         <v>1494767</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3167,13 @@
         <v>12616</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3224,13 +3182,13 @@
         <v>20272</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -3239,13 +3197,13 @@
         <v>32888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3218,13 @@
         <v>206458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3275,13 +3233,13 @@
         <v>174563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>358</v>
@@ -3290,13 +3248,13 @@
         <v>381020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3269,13 @@
         <v>780277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1053</v>
@@ -3326,13 +3284,13 @@
         <v>1129408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>1787</v>
@@ -3341,18 +3299,18 @@
         <v>1909685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3364,13 +3322,13 @@
         <v>1290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3385,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3394,13 +3352,13 @@
         <v>1290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3373,13 @@
         <v>1449485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>1305</v>
@@ -3430,13 +3388,13 @@
         <v>1402723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>2687</v>
@@ -3445,13 +3403,13 @@
         <v>2852208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3424,13 @@
         <v>60147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -3481,13 +3439,13 @@
         <v>36866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -3496,13 +3454,13 @@
         <v>97013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3475,13 @@
         <v>172252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H12" s="7">
         <v>137</v>
@@ -3532,13 +3490,13 @@
         <v>147642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M12" s="7">
         <v>294</v>
@@ -3547,13 +3505,13 @@
         <v>319894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3526,13 @@
         <v>1683173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>1474</v>
@@ -3583,13 +3541,13 @@
         <v>1587232</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>3066</v>
@@ -3598,18 +3556,18 @@
         <v>3270404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3627,7 +3585,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3642,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3657,7 +3615,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3630,13 @@
         <v>399437</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H15" s="7">
         <v>342</v>
@@ -3687,13 +3645,13 @@
         <v>378486</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="M15" s="7">
         <v>707</v>
@@ -3702,13 +3660,13 @@
         <v>777923</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3681,13 @@
         <v>24631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3738,13 +3696,13 @@
         <v>23784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -3753,13 +3711,13 @@
         <v>48415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3732,13 @@
         <v>14929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3789,13 +3747,13 @@
         <v>20492</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -3804,13 +3762,13 @@
         <v>35421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3783,13 @@
         <v>438997</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>380</v>
@@ -3840,13 +3798,13 @@
         <v>422762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>778</v>
@@ -3855,13 +3813,13 @@
         <v>861759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3836,13 @@
         <v>2300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3899,7 +3857,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3908,13 +3866,13 @@
         <v>2300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3887,13 @@
         <v>2409115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>2518</v>
@@ -3944,13 +3902,13 @@
         <v>2715783</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>4791</v>
@@ -3959,13 +3917,13 @@
         <v>5124898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3938,13 @@
         <v>97393</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -3995,13 +3953,13 @@
         <v>80922</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -4010,13 +3968,13 @@
         <v>178315</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +3989,13 @@
         <v>393639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>319</v>
@@ -4046,13 +4004,13 @@
         <v>342697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>684</v>
@@ -4061,13 +4019,13 @@
         <v>736335</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4040,13 @@
         <v>2902447</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>2907</v>
@@ -4097,13 +4055,13 @@
         <v>3139402</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>5631</v>
@@ -4112,18 +4070,18 @@
         <v>6041849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34903DA-DA68-4A32-9D27-E489A8266B64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3EE4A8-2C11-4C63-81E4-5C59CA4E6647}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4159,7 +4117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4266,13 +4224,13 @@
         <v>2057</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4287,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4296,13 +4254,13 @@
         <v>2057</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4275,13 @@
         <v>390284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -4332,13 +4290,13 @@
         <v>552725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>898</v>
@@ -4347,13 +4305,13 @@
         <v>943009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,10 +4329,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4383,13 +4341,13 @@
         <v>2818</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4398,13 +4356,13 @@
         <v>5688</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4377,13 @@
         <v>62208</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -4434,13 +4392,13 @@
         <v>82060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -4449,13 +4407,13 @@
         <v>144268</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4428,13 @@
         <v>457419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -4485,13 +4443,13 @@
         <v>637603</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -4500,18 +4458,18 @@
         <v>1095022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4529,7 +4487,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4544,7 +4502,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4553,13 +4511,13 @@
         <v>992</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4532,13 @@
         <v>1502748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>1459</v>
@@ -4589,13 +4547,13 @@
         <v>1512583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>2877</v>
@@ -4604,13 +4562,13 @@
         <v>3015331</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4583,13 @@
         <v>22306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4640,13 +4598,13 @@
         <v>47182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -4655,13 +4613,13 @@
         <v>69488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4634,13 @@
         <v>169513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4691,13 +4649,13 @@
         <v>148954</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>302</v>
@@ -4706,13 +4664,13 @@
         <v>318467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4685,13 @@
         <v>1695559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>1646</v>
@@ -4742,13 +4700,13 @@
         <v>1708719</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>3244</v>
@@ -4757,18 +4715,18 @@
         <v>3404278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4786,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4801,7 +4759,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4816,7 +4774,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4789,13 @@
         <v>457148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H15" s="7">
         <v>430</v>
@@ -4846,13 +4804,13 @@
         <v>445773</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -4861,13 +4819,13 @@
         <v>902920</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4840,13 @@
         <v>26827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4897,13 +4855,13 @@
         <v>38393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -4912,13 +4870,13 @@
         <v>65219</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4891,13 @@
         <v>14350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4948,13 +4906,13 @@
         <v>23047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -4963,13 +4921,13 @@
         <v>37397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4942,13 @@
         <v>498324</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>488</v>
@@ -4999,13 +4957,13 @@
         <v>508320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>946</v>
@@ -5014,13 +4972,13 @@
         <v>1006643</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,10 +4998,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5052,13 +5010,13 @@
         <v>1107</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5067,13 +5025,13 @@
         <v>4155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5046,13 @@
         <v>2350180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>2392</v>
@@ -5103,13 +5061,13 @@
         <v>2511081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>4625</v>
@@ -5118,13 +5076,13 @@
         <v>4861260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5097,13 @@
         <v>52003</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -5154,13 +5112,13 @@
         <v>88392</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M21" s="7">
         <v>128</v>
@@ -5169,13 +5127,13 @@
         <v>140395</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>358</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5148,13 @@
         <v>246071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -5205,13 +5163,13 @@
         <v>254062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>475</v>
@@ -5220,13 +5178,13 @@
         <v>500132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5199,13 @@
         <v>2651302</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>2715</v>
@@ -5256,13 +5214,13 @@
         <v>2854642</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>5232</v>
@@ -5271,18 +5229,18 @@
         <v>5505943</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5301,7 +5259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CDACCB-EC74-4B27-90F4-34C11065FF5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4265D654-ED87-4337-B5E5-38C3C3B1598A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5318,7 +5276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5446,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5461,7 +5419,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5434,13 @@
         <v>412537</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="H5" s="7">
         <v>1207</v>
@@ -5491,13 +5449,13 @@
         <v>696337</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="M5" s="7">
         <v>1733</v>
@@ -5506,13 +5464,13 @@
         <v>1108874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5485,13 @@
         <v>4175</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5542,13 +5500,13 @@
         <v>5202</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5557,13 +5515,13 @@
         <v>9377</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5536,13 @@
         <v>92714</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5593,13 +5551,13 @@
         <v>100532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="M7" s="7">
         <v>274</v>
@@ -5608,13 +5566,13 @@
         <v>193246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5587,13 @@
         <v>509426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1373</v>
@@ -5644,13 +5602,13 @@
         <v>802071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2020</v>
@@ -5659,18 +5617,18 @@
         <v>1311497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5688,7 +5646,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>117</v>
+        <v>355</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5703,7 +5661,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5718,7 +5676,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5691,13 @@
         <v>1864298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>2695</v>
@@ -5748,13 +5706,13 @@
         <v>2092682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>4446</v>
@@ -5763,13 +5721,13 @@
         <v>3956980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,10 +5745,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -5799,13 +5757,13 @@
         <v>13627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -5814,13 +5772,13 @@
         <v>38580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5793,13 @@
         <v>208163</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
@@ -5850,13 +5808,13 @@
         <v>98850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="M12" s="7">
         <v>283</v>
@@ -5865,13 +5823,13 @@
         <v>307013</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5844,13 @@
         <v>2097414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>2849</v>
@@ -5901,13 +5859,13 @@
         <v>2205158</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>4773</v>
@@ -5916,18 +5874,18 @@
         <v>4302572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5945,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5960,7 +5918,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5975,7 +5933,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +5948,13 @@
         <v>615476</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="H15" s="7">
         <v>938</v>
@@ -6005,13 +5963,13 @@
         <v>669792</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="M15" s="7">
         <v>1564</v>
@@ -6020,13 +5978,13 @@
         <v>1285268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>215</v>
+        <v>408</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +5999,13 @@
         <v>28321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6056,13 +6014,13 @@
         <v>20498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -6071,13 +6029,13 @@
         <v>48820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6050,13 @@
         <v>18257</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -6107,13 +6065,13 @@
         <v>15929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6122,13 +6080,13 @@
         <v>34186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6101,13 @@
         <v>662055</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>991</v>
@@ -6158,13 +6116,13 @@
         <v>706220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1662</v>
@@ -6173,13 +6131,13 @@
         <v>1368274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6175,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6232,7 +6190,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,28 +6205,28 @@
         <v>2892310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>4840</v>
       </c>
       <c r="I20" s="7">
-        <v>3458810</v>
+        <v>3458811</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>7743</v>
@@ -6277,13 +6235,13 @@
         <v>6351122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6256,13 @@
         <v>57450</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>297</v>
+        <v>431</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -6313,28 +6271,28 @@
         <v>39327</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>448</v>
+        <v>67</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
       </c>
       <c r="N21" s="7">
-        <v>96776</v>
+        <v>96777</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>273</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6307,13 @@
         <v>319134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -6364,13 +6322,13 @@
         <v>215311</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>599</v>
@@ -6379,13 +6337,13 @@
         <v>534445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,48 +6358,48 @@
         <v>3268894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>5213</v>
       </c>
       <c r="I23" s="7">
-        <v>3713448</v>
+        <v>3713449</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>8455</v>
       </c>
       <c r="N23" s="7">
-        <v>6982343</v>
+        <v>6982344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAEDEAF4-2FB5-440D-991F-21C2F9259AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4ACBA57-5AA8-43FC-9D64-9E07A81265C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65B26055-6605-4A3A-9B55-E0A98D1F999C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00CA7E5B-502F-411B-9931-F629CCD78CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="451">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -89,1282 +89,1303 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>Dentista privado/particular</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>Dentista privado/particular</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>7,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
   </si>
   <si>
     <t>6,62%</t>
@@ -1782,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CB7BA4-8C50-4D2C-B1FD-ECB87276CADE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAE428A-5383-4E8C-AB99-D0B73780854A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2023,13 +2044,13 @@
         <v>9887</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -2038,19 +2059,19 @@
         <v>18070</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>88</v>
@@ -2059,13 +2080,13 @@
         <v>88243</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -2074,13 +2095,13 @@
         <v>90881</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -2089,13 +2110,13 @@
         <v>179125</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2131,13 @@
         <v>690204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>947</v>
@@ -2125,13 +2146,13 @@
         <v>958959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>1644</v>
@@ -2140,18 +2161,18 @@
         <v>1649162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2163,13 +2184,13 @@
         <v>1764</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2178,13 +2199,13 @@
         <v>1923</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2193,13 +2214,13 @@
         <v>3687</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2235,13 @@
         <v>1216476</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>1241</v>
@@ -2229,13 +2250,13 @@
         <v>1266524</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>2427</v>
@@ -2244,13 +2265,13 @@
         <v>2483000</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2286,13 @@
         <v>22722</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2280,13 +2301,13 @@
         <v>23280</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -2295,19 +2316,19 @@
         <v>46002</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>72</v>
@@ -2367,13 +2388,13 @@
         <v>1314448</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>1344</v>
@@ -2382,13 +2403,13 @@
         <v>1373195</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>2625</v>
@@ -2397,13 +2418,13 @@
         <v>2687643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2435,13 +2456,13 @@
         <v>1225</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2450,13 +2471,13 @@
         <v>2096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2492,13 @@
         <v>411703</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>360</v>
@@ -2486,13 +2507,13 @@
         <v>379598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>753</v>
@@ -2501,13 +2522,13 @@
         <v>791301</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2543,13 @@
         <v>24970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2537,13 +2558,13 @@
         <v>16521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2552,19 +2573,19 @@
         <v>41491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>12</v>
@@ -2573,13 +2594,13 @@
         <v>14888</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2588,13 +2609,13 @@
         <v>11439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2603,13 +2624,13 @@
         <v>26326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2645,13 @@
         <v>452432</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
@@ -2639,13 +2660,13 @@
         <v>408783</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>819</v>
@@ -2654,13 +2675,13 @@
         <v>861215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,10 +2701,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2692,13 +2713,13 @@
         <v>6796</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2707,13 +2728,13 @@
         <v>9431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2749,13 @@
         <v>2221956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>2447</v>
@@ -2743,13 +2764,13 @@
         <v>2500664</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>4627</v>
@@ -2758,13 +2779,13 @@
         <v>4722620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2800,13 @@
         <v>55875</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -2794,13 +2815,13 @@
         <v>49688</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>101</v>
@@ -2809,19 +2830,19 @@
         <v>105564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>172</v>
@@ -2830,13 +2851,13 @@
         <v>176618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -2845,13 +2866,13 @@
         <v>183788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>351</v>
@@ -2860,13 +2881,13 @@
         <v>360406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2902,13 @@
         <v>2457084</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>2679</v>
@@ -2896,13 +2917,13 @@
         <v>2740937</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>5088</v>
@@ -2911,18 +2932,18 @@
         <v>5198021</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764CEA3E-768C-43F8-890D-A76808DC3B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F8A06B-3AA0-4EF0-8E27-B72FAFE353EF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,7 +2979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3065,13 +3086,13 @@
         <v>1010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3086,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3095,13 +3116,13 @@
         <v>1010</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3137,13 @@
         <v>560193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>871</v>
@@ -3131,13 +3152,13 @@
         <v>934573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>1397</v>
@@ -3146,13 +3167,13 @@
         <v>1494767</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3188,13 @@
         <v>12616</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3182,13 +3203,13 @@
         <v>20272</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -3197,19 +3218,19 @@
         <v>32888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>195</v>
@@ -3218,13 +3239,13 @@
         <v>206458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3233,13 +3254,13 @@
         <v>174563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>358</v>
@@ -3248,13 +3269,13 @@
         <v>381020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3290,13 @@
         <v>780277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>1053</v>
@@ -3284,13 +3305,13 @@
         <v>1129408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>1787</v>
@@ -3299,18 +3320,18 @@
         <v>1909685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3322,13 +3343,13 @@
         <v>1290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3343,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3352,13 +3373,13 @@
         <v>1290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3394,13 @@
         <v>1449485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>1305</v>
@@ -3388,13 +3409,13 @@
         <v>1402723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>2687</v>
@@ -3403,13 +3424,13 @@
         <v>2852208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3445,13 @@
         <v>60147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -3439,13 +3460,13 @@
         <v>36866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -3454,19 +3475,19 @@
         <v>97013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>157</v>
@@ -3475,13 +3496,13 @@
         <v>172252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H12" s="7">
         <v>137</v>
@@ -3490,13 +3511,13 @@
         <v>147642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M12" s="7">
         <v>294</v>
@@ -3505,13 +3526,13 @@
         <v>319894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3547,13 @@
         <v>1683173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>1474</v>
@@ -3541,28 +3562,28 @@
         <v>1587232</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>3066</v>
       </c>
       <c r="N13" s="7">
-        <v>3270404</v>
+        <v>3270405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3600,7 +3621,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3615,7 +3636,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3651,13 @@
         <v>399437</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H15" s="7">
         <v>342</v>
@@ -3645,13 +3666,13 @@
         <v>378486</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M15" s="7">
         <v>707</v>
@@ -3660,13 +3681,13 @@
         <v>777923</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3702,13 @@
         <v>24631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3696,13 +3717,13 @@
         <v>23784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -3711,19 +3732,19 @@
         <v>48415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
@@ -3732,13 +3753,13 @@
         <v>14929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3747,13 +3768,13 @@
         <v>20492</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -3762,13 +3783,13 @@
         <v>35421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3804,13 @@
         <v>438997</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>380</v>
@@ -3798,13 +3819,13 @@
         <v>422762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>778</v>
@@ -3813,13 +3834,13 @@
         <v>861759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3857,13 @@
         <v>2300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3857,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3866,13 +3887,13 @@
         <v>2300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3908,13 @@
         <v>2409115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>2518</v>
@@ -3902,13 +3923,13 @@
         <v>2715783</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>4791</v>
@@ -3917,13 +3938,13 @@
         <v>5124898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3959,13 @@
         <v>97393</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -3953,13 +3974,13 @@
         <v>80922</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -3968,19 +3989,19 @@
         <v>178315</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>365</v>
@@ -3989,13 +4010,13 @@
         <v>393639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>319</v>
@@ -4004,13 +4025,13 @@
         <v>342697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>684</v>
@@ -4019,13 +4040,13 @@
         <v>736335</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4061,13 @@
         <v>2902447</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>2907</v>
@@ -4055,13 +4076,13 @@
         <v>3139402</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>5631</v>
@@ -4070,18 +4091,18 @@
         <v>6041849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4100,7 +4121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3EE4A8-2C11-4C63-81E4-5C59CA4E6647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C45A07-415E-4078-8F22-4CDCF8552DC7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4117,7 +4138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4224,13 +4245,13 @@
         <v>2057</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4245,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4260,7 +4281,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4296,13 @@
         <v>390284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -4290,13 +4311,13 @@
         <v>552725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>898</v>
@@ -4305,13 +4326,13 @@
         <v>943009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4353,7 @@
         <v>84</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4341,13 +4362,13 @@
         <v>2818</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4356,19 +4377,19 @@
         <v>5688</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>61</v>
@@ -4377,13 +4398,13 @@
         <v>62208</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -4392,13 +4413,13 @@
         <v>82060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -4407,13 +4428,13 @@
         <v>144268</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4449,13 @@
         <v>457419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -4443,13 +4464,13 @@
         <v>637603</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -4458,18 +4479,18 @@
         <v>1095022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4487,7 +4508,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4502,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4511,13 +4532,13 @@
         <v>992</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4553,13 @@
         <v>1502748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>1459</v>
@@ -4547,13 +4568,13 @@
         <v>1512583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>2877</v>
@@ -4562,13 +4583,13 @@
         <v>3015331</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4604,13 @@
         <v>22306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4598,13 +4619,13 @@
         <v>47182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -4613,19 +4634,19 @@
         <v>69488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>159</v>
@@ -4634,13 +4655,13 @@
         <v>169513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4649,13 +4670,13 @@
         <v>148954</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="M12" s="7">
         <v>302</v>
@@ -4664,13 +4685,13 @@
         <v>318467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4706,13 @@
         <v>1695559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>1646</v>
@@ -4700,13 +4721,13 @@
         <v>1708719</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>3244</v>
@@ -4715,13 +4736,13 @@
         <v>3404278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4759,7 +4780,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4774,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4810,13 @@
         <v>457148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H15" s="7">
         <v>430</v>
@@ -4804,13 +4825,13 @@
         <v>445773</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -4819,13 +4840,13 @@
         <v>902920</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4861,13 @@
         <v>26827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4855,13 +4876,13 @@
         <v>38393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -4870,19 +4891,19 @@
         <v>65219</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -4891,13 +4912,13 @@
         <v>14350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4906,13 +4927,13 @@
         <v>23047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -4921,13 +4942,13 @@
         <v>37397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4963,13 @@
         <v>498324</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>488</v>
@@ -4957,13 +4978,13 @@
         <v>508320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>946</v>
@@ -4972,13 +4993,13 @@
         <v>1006643</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,10 +5019,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5010,7 +5031,7 @@
         <v>1107</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
@@ -5025,13 +5046,13 @@
         <v>4155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5067,13 @@
         <v>2350180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>2392</v>
@@ -5061,28 +5082,28 @@
         <v>2511081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>4625</v>
       </c>
       <c r="N20" s="7">
-        <v>4861260</v>
+        <v>4861261</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5118,13 @@
         <v>52003</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -5112,13 +5133,13 @@
         <v>88392</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>164</v>
+        <v>347</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M21" s="7">
         <v>128</v>
@@ -5127,19 +5148,19 @@
         <v>140395</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>189</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>234</v>
@@ -5148,13 +5169,13 @@
         <v>246071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -5163,28 +5184,28 @@
         <v>254062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>475</v>
       </c>
       <c r="N22" s="7">
-        <v>500132</v>
+        <v>500133</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5220,13 @@
         <v>2651302</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>2715</v>
@@ -5214,33 +5235,33 @@
         <v>2854642</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>5232</v>
       </c>
       <c r="N23" s="7">
-        <v>5505943</v>
+        <v>5505944</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5259,7 +5280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4265D654-ED87-4337-B5E5-38C3C3B1598A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32F5220-E83F-4480-BE75-4E42C7BC3F4B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5276,7 +5297,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5389,7 +5410,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5404,7 +5425,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5419,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5455,13 @@
         <v>412537</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H5" s="7">
         <v>1207</v>
@@ -5449,13 +5470,13 @@
         <v>696337</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M5" s="7">
         <v>1733</v>
@@ -5464,13 +5485,13 @@
         <v>1108874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5506,13 @@
         <v>4175</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5500,13 +5521,13 @@
         <v>5202</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>374</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5515,7 +5536,7 @@
         <v>9377</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>14</v>
@@ -5527,7 +5548,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>116</v>
@@ -5536,13 +5557,13 @@
         <v>92714</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5551,13 +5572,13 @@
         <v>100532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>274</v>
@@ -5566,13 +5587,13 @@
         <v>193246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5608,13 @@
         <v>509426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>1373</v>
@@ -5602,13 +5623,13 @@
         <v>802071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>2020</v>
@@ -5617,18 +5638,18 @@
         <v>1311497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5646,7 +5667,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5661,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5676,7 +5697,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5712,13 @@
         <v>1864298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>2695</v>
@@ -5706,13 +5727,13 @@
         <v>2092682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>4446</v>
@@ -5721,13 +5742,13 @@
         <v>3956980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,10 +5766,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>395</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -5757,13 +5778,13 @@
         <v>13627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -5772,19 +5793,19 @@
         <v>38580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>150</v>
@@ -5793,13 +5814,13 @@
         <v>208163</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
@@ -5808,13 +5829,13 @@
         <v>98850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M12" s="7">
         <v>283</v>
@@ -5823,13 +5844,13 @@
         <v>307013</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5865,13 @@
         <v>2097414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>2849</v>
@@ -5859,13 +5880,13 @@
         <v>2205158</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>4773</v>
@@ -5874,13 +5895,13 @@
         <v>4302572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5933,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5969,13 @@
         <v>615476</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H15" s="7">
         <v>938</v>
@@ -5963,13 +5984,13 @@
         <v>669792</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M15" s="7">
         <v>1564</v>
@@ -5978,13 +5999,13 @@
         <v>1285268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6020,13 @@
         <v>28321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6014,13 +6035,13 @@
         <v>20498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -6029,19 +6050,19 @@
         <v>48820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -6050,13 +6071,13 @@
         <v>18257</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -6065,13 +6086,13 @@
         <v>15929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6080,13 +6101,13 @@
         <v>34186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6122,13 @@
         <v>662055</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>991</v>
@@ -6116,13 +6137,13 @@
         <v>706220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>1662</v>
@@ -6131,13 +6152,13 @@
         <v>1368274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6196,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6190,7 +6211,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6226,13 @@
         <v>2892310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>4840</v>
@@ -6220,13 +6241,13 @@
         <v>3458811</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>7743</v>
@@ -6235,13 +6256,13 @@
         <v>6351122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6277,13 @@
         <v>57450</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -6271,13 +6292,13 @@
         <v>39327</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>67</v>
+        <v>437</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -6286,19 +6307,19 @@
         <v>96777</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>441</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>435</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>286</v>
@@ -6307,13 +6328,13 @@
         <v>319134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -6322,13 +6343,13 @@
         <v>215311</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>599</v>
@@ -6337,13 +6358,13 @@
         <v>534445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +6379,13 @@
         <v>3268894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>5213</v>
@@ -6373,13 +6394,13 @@
         <v>3713449</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>8455</v>
@@ -6388,18 +6409,18 @@
         <v>6982344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4ACBA57-5AA8-43FC-9D64-9E07A81265C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D47F883-A0DC-4362-8A9C-8894CE98F81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00CA7E5B-502F-411B-9931-F629CCD78CCC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A584EFB7-C889-423B-80E8-585C6DD6964E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="458">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -89,1309 +89,1330 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>Dentista privado/particular</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>Dentista privado/particular</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>91,23%</t>
   </si>
   <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>6,68%</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAE428A-5383-4E8C-AB99-D0B73780854A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910595DA-DD87-4DB7-8F9D-95AA226EAC4C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2044,13 +2065,13 @@
         <v>9887</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -2059,19 +2080,19 @@
         <v>18070</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>88</v>
@@ -2080,13 +2101,13 @@
         <v>88243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -2095,13 +2116,13 @@
         <v>90881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -2110,13 +2131,13 @@
         <v>179125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2152,13 @@
         <v>690204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>947</v>
@@ -2146,13 +2167,13 @@
         <v>958959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>1644</v>
@@ -2161,18 +2182,18 @@
         <v>1649162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2184,13 +2205,13 @@
         <v>1764</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2199,13 +2220,13 @@
         <v>1923</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2214,13 +2235,13 @@
         <v>3687</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2256,13 @@
         <v>1216476</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>1241</v>
@@ -2250,13 +2271,13 @@
         <v>1266524</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>2427</v>
@@ -2265,13 +2286,13 @@
         <v>2483000</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2307,7 @@
         <v>22722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>66</v>
@@ -2304,10 +2325,10 @@
         <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -2316,19 +2337,19 @@
         <v>46002</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>72</v>
@@ -2337,13 +2358,13 @@
         <v>73487</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -2352,13 +2373,13 @@
         <v>81468</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -2367,13 +2388,13 @@
         <v>154955</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2409,13 @@
         <v>1314448</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1344</v>
@@ -2403,13 +2424,13 @@
         <v>1373195</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>2625</v>
@@ -2418,18 +2439,18 @@
         <v>2687643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2441,13 +2462,13 @@
         <v>871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2456,13 +2477,13 @@
         <v>1225</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2471,13 +2492,13 @@
         <v>2096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2513,13 @@
         <v>411703</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>360</v>
@@ -2507,13 +2528,13 @@
         <v>379598</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>753</v>
@@ -2522,13 +2543,13 @@
         <v>791301</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2564,13 @@
         <v>24970</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2558,13 +2579,13 @@
         <v>16521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2573,19 +2594,19 @@
         <v>41491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>12</v>
@@ -2594,13 +2615,13 @@
         <v>14888</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2609,13 +2630,13 @@
         <v>11439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2624,13 +2645,13 @@
         <v>26326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2666,13 @@
         <v>452432</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
@@ -2660,13 +2681,13 @@
         <v>408783</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>819</v>
@@ -2675,13 +2696,13 @@
         <v>861215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,10 +2722,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2713,13 +2734,13 @@
         <v>6796</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2728,13 +2749,13 @@
         <v>9431</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2785,13 @@
         <v>2500664</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>4627</v>
@@ -2779,13 +2800,13 @@
         <v>4722620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2821,13 @@
         <v>55875</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -2815,13 +2836,13 @@
         <v>49688</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
         <v>101</v>
@@ -2842,7 +2863,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>172</v>
@@ -2881,13 +2902,13 @@
         <v>360406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2923,13 @@
         <v>2457084</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>2679</v>
@@ -2917,13 +2938,13 @@
         <v>2740937</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>5088</v>
@@ -2932,18 +2953,18 @@
         <v>5198021</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +2983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F8A06B-3AA0-4EF0-8E27-B72FAFE353EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C115492-04E5-4281-AE12-A0F58F0BD472}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +3000,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3086,13 +3107,13 @@
         <v>1010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3107,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3116,13 +3137,13 @@
         <v>1010</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3158,13 @@
         <v>560193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>871</v>
@@ -3152,13 +3173,13 @@
         <v>934573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>1397</v>
@@ -3167,13 +3188,13 @@
         <v>1494767</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3209,13 @@
         <v>12616</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3203,13 +3224,13 @@
         <v>20272</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -3218,19 +3239,19 @@
         <v>32888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>195</v>
@@ -3239,13 +3260,13 @@
         <v>206458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3254,13 +3275,13 @@
         <v>174563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>358</v>
@@ -3269,13 +3290,13 @@
         <v>381020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3311,13 @@
         <v>780277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1053</v>
@@ -3305,13 +3326,13 @@
         <v>1129408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>1787</v>
@@ -3320,18 +3341,18 @@
         <v>1909685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3343,13 +3364,13 @@
         <v>1290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3364,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3373,13 +3394,13 @@
         <v>1290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3415,13 @@
         <v>1449485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>1305</v>
@@ -3409,13 +3430,13 @@
         <v>1402723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>2687</v>
@@ -3424,13 +3445,13 @@
         <v>2852208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3466,13 @@
         <v>60147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -3460,13 +3481,13 @@
         <v>36866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -3475,19 +3496,19 @@
         <v>97013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>157</v>
@@ -3496,13 +3517,13 @@
         <v>172252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H12" s="7">
         <v>137</v>
@@ -3511,13 +3532,13 @@
         <v>147642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M12" s="7">
         <v>294</v>
@@ -3526,13 +3547,13 @@
         <v>319894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3568,13 @@
         <v>1683173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1474</v>
@@ -3562,33 +3583,33 @@
         <v>1587232</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3066</v>
       </c>
       <c r="N13" s="7">
-        <v>3270405</v>
+        <v>3270404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3606,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3621,7 +3642,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3636,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3672,13 @@
         <v>399437</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H15" s="7">
         <v>342</v>
@@ -3666,13 +3687,13 @@
         <v>378486</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M15" s="7">
         <v>707</v>
@@ -3681,13 +3702,13 @@
         <v>777923</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3723,13 @@
         <v>24631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3717,13 +3738,13 @@
         <v>23784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -3732,19 +3753,19 @@
         <v>48415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
@@ -3753,13 +3774,13 @@
         <v>14929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3768,13 +3789,13 @@
         <v>20492</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -3783,13 +3804,13 @@
         <v>35421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3825,13 @@
         <v>438997</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>380</v>
@@ -3819,13 +3840,13 @@
         <v>422762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>778</v>
@@ -3834,13 +3855,13 @@
         <v>861759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3878,13 @@
         <v>2300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3878,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3887,13 +3908,13 @@
         <v>2300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3929,13 @@
         <v>2409115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>2518</v>
@@ -3923,13 +3944,13 @@
         <v>2715783</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>4791</v>
@@ -3938,13 +3959,13 @@
         <v>5124898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3980,13 @@
         <v>97393</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -3974,13 +3995,13 @@
         <v>80922</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -3989,19 +4010,19 @@
         <v>178315</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>365</v>
@@ -4010,13 +4031,13 @@
         <v>393639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>319</v>
@@ -4025,13 +4046,13 @@
         <v>342697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>684</v>
@@ -4040,13 +4061,13 @@
         <v>736335</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4082,13 @@
         <v>2902447</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>2907</v>
@@ -4076,13 +4097,13 @@
         <v>3139402</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>5631</v>
@@ -4091,18 +4112,18 @@
         <v>6041849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4121,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C45A07-415E-4078-8F22-4CDCF8552DC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AB7B60-CABF-4E2D-A02A-FC1C5CB69B7F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4138,7 +4159,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4245,13 +4266,13 @@
         <v>2057</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4266,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4275,13 +4296,13 @@
         <v>2057</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4317,13 @@
         <v>390284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -4311,13 +4332,13 @@
         <v>552725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>898</v>
@@ -4326,13 +4347,13 @@
         <v>943009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,10 +4371,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4362,13 +4383,13 @@
         <v>2818</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4377,19 +4398,19 @@
         <v>5688</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>61</v>
@@ -4398,13 +4419,13 @@
         <v>62208</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -4413,13 +4434,13 @@
         <v>82060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -4428,13 +4449,13 @@
         <v>144268</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4470,13 @@
         <v>457419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -4464,13 +4485,13 @@
         <v>637603</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -4479,18 +4500,18 @@
         <v>1095022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4508,7 +4529,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4523,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4532,13 +4553,13 @@
         <v>992</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4574,13 @@
         <v>1502748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>1459</v>
@@ -4568,13 +4589,13 @@
         <v>1512583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
         <v>2877</v>
@@ -4583,13 +4604,13 @@
         <v>3015331</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4625,13 @@
         <v>22306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4619,13 +4640,13 @@
         <v>47182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -4634,19 +4655,19 @@
         <v>69488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>159</v>
@@ -4655,13 +4676,13 @@
         <v>169513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4670,13 +4691,13 @@
         <v>148954</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
       <c r="M12" s="7">
         <v>302</v>
@@ -4685,13 +4706,13 @@
         <v>318467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4727,13 @@
         <v>1695559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1646</v>
@@ -4721,13 +4742,13 @@
         <v>1708719</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3244</v>
@@ -4736,18 +4757,18 @@
         <v>3404278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4765,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4780,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4795,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4831,13 @@
         <v>457148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>123</v>
+        <v>317</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H15" s="7">
         <v>430</v>
@@ -4825,13 +4846,13 @@
         <v>445773</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -4840,13 +4861,13 @@
         <v>902920</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4882,13 @@
         <v>26827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4876,13 +4897,13 @@
         <v>38393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -4891,19 +4912,19 @@
         <v>65219</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -4912,13 +4933,13 @@
         <v>14350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4927,13 +4948,13 @@
         <v>23047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -4942,13 +4963,13 @@
         <v>37397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4984,13 @@
         <v>498324</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>488</v>
@@ -4978,13 +4999,13 @@
         <v>508320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>946</v>
@@ -4993,13 +5014,13 @@
         <v>1006643</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,10 +5040,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5031,13 +5052,13 @@
         <v>1107</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5046,13 +5067,13 @@
         <v>4155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5088,13 @@
         <v>2350180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>2392</v>
@@ -5082,28 +5103,28 @@
         <v>2511081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>4625</v>
       </c>
       <c r="N20" s="7">
-        <v>4861261</v>
+        <v>4861260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5139,13 @@
         <v>52003</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -5133,13 +5154,13 @@
         <v>88392</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
         <v>128</v>
@@ -5148,19 +5169,19 @@
         <v>140395</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>234</v>
@@ -5169,13 +5190,13 @@
         <v>246071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -5184,28 +5205,28 @@
         <v>254062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>475</v>
       </c>
       <c r="N22" s="7">
-        <v>500133</v>
+        <v>500132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5241,13 @@
         <v>2651302</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>2715</v>
@@ -5235,33 +5256,33 @@
         <v>2854642</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>5232</v>
       </c>
       <c r="N23" s="7">
-        <v>5505944</v>
+        <v>5505943</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5280,7 +5301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32F5220-E83F-4480-BE75-4E42C7BC3F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61B29F-B1CB-43C0-938A-B4A82D60C7AD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5297,7 +5318,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5410,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5425,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5440,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5476,13 @@
         <v>412537</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>1207</v>
@@ -5470,13 +5491,13 @@
         <v>696337</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>1733</v>
@@ -5485,13 +5506,13 @@
         <v>1108874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5527,13 @@
         <v>4175</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5521,13 +5542,13 @@
         <v>5202</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>374</v>
+        <v>38</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5536,19 +5557,19 @@
         <v>9377</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>116</v>
@@ -5557,13 +5578,13 @@
         <v>92714</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5572,13 +5593,13 @@
         <v>100532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>274</v>
@@ -5587,13 +5608,13 @@
         <v>193246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5629,13 @@
         <v>509426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1373</v>
@@ -5623,13 +5644,13 @@
         <v>802071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2020</v>
@@ -5638,18 +5659,18 @@
         <v>1311497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5667,7 +5688,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>117</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5682,7 +5703,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5697,7 +5718,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5733,13 @@
         <v>1864298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>2695</v>
@@ -5727,13 +5748,13 @@
         <v>2092682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M10" s="7">
         <v>4446</v>
@@ -5742,13 +5763,13 @@
         <v>3956980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,10 +5787,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -5778,13 +5799,13 @@
         <v>13627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -5793,19 +5814,19 @@
         <v>38580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>150</v>
@@ -5814,13 +5835,13 @@
         <v>208163</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
@@ -5829,13 +5850,13 @@
         <v>98850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M12" s="7">
         <v>283</v>
@@ -5844,13 +5865,13 @@
         <v>307013</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5886,13 @@
         <v>2097414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>2849</v>
@@ -5880,13 +5901,13 @@
         <v>2205158</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>4773</v>
@@ -5895,18 +5916,18 @@
         <v>4302572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5924,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5939,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5954,7 +5975,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5990,13 @@
         <v>615476</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H15" s="7">
         <v>938</v>
@@ -5984,13 +6005,13 @@
         <v>669792</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="M15" s="7">
         <v>1564</v>
@@ -5999,13 +6020,13 @@
         <v>1285268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6041,13 @@
         <v>28321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6035,13 +6056,13 @@
         <v>20498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -6050,19 +6071,19 @@
         <v>48820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -6071,13 +6092,13 @@
         <v>18257</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -6086,13 +6107,13 @@
         <v>15929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6101,13 +6122,13 @@
         <v>34186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6143,13 @@
         <v>662055</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>991</v>
@@ -6137,13 +6158,13 @@
         <v>706220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1662</v>
@@ -6152,13 +6173,13 @@
         <v>1368274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6211,7 +6232,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,28 +6247,28 @@
         <v>2892310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>4840</v>
       </c>
       <c r="I20" s="7">
-        <v>3458811</v>
+        <v>3458810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>7743</v>
@@ -6256,13 +6277,13 @@
         <v>6351122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6298,13 @@
         <v>57450</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -6292,34 +6313,34 @@
         <v>39327</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
       </c>
       <c r="N21" s="7">
-        <v>96777</v>
+        <v>96776</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>440</v>
+        <v>135</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>441</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>286</v>
@@ -6328,13 +6349,13 @@
         <v>319134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -6343,13 +6364,13 @@
         <v>215311</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>599</v>
@@ -6358,13 +6379,13 @@
         <v>534445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,48 +6400,48 @@
         <v>3268894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>5213</v>
       </c>
       <c r="I23" s="7">
-        <v>3713449</v>
+        <v>3713448</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>8455</v>
       </c>
       <c r="N23" s="7">
-        <v>6982344</v>
+        <v>6982343</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D47F883-A0DC-4362-8A9C-8894CE98F81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7350609C-C7AB-4FF2-A7A7-326677CDB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A584EFB7-C889-423B-80E8-585C6DD6964E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D57F6514-81C3-4695-BF6F-86C64101F115}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1148,271 +1148,271 @@
     <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
   </si>
   <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910595DA-DD87-4DB7-8F9D-95AA226EAC4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B49E83-14D2-4E66-AF5C-2FE29CE76FA2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2026,7 +2026,7 @@
         <v>1447</v>
       </c>
       <c r="N5" s="7">
-        <v>1448318</v>
+        <v>1448319</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2179,7 +2179,7 @@
         <v>1644</v>
       </c>
       <c r="N8" s="7">
-        <v>1649162</v>
+        <v>1649163</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -2983,7 +2983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C115492-04E5-4281-AE12-A0F58F0BD472}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786A2DFC-1E20-4A0A-8CDD-27242502137B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3595,7 +3595,7 @@
         <v>3066</v>
       </c>
       <c r="N13" s="7">
-        <v>3270404</v>
+        <v>3270405</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -4142,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AB7B60-CABF-4E2D-A02A-FC1C5CB69B7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDCB63B-ADE7-4D63-AB58-0A7F0B47FE4D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4601,7 +4601,7 @@
         <v>2877</v>
       </c>
       <c r="N10" s="7">
-        <v>3015331</v>
+        <v>3015330</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>294</v>
@@ -4754,7 +4754,7 @@
         <v>3244</v>
       </c>
       <c r="N13" s="7">
-        <v>3404278</v>
+        <v>3404277</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -5301,7 +5301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61B29F-B1CB-43C0-938A-B4A82D60C7AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A363FCF1-C67C-40F6-BE25-E2741EF96C2B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5473,7 +5473,7 @@
         <v>526</v>
       </c>
       <c r="D5" s="7">
-        <v>412537</v>
+        <v>395631</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>369</v>
@@ -5488,7 +5488,7 @@
         <v>1207</v>
       </c>
       <c r="I5" s="7">
-        <v>696337</v>
+        <v>631977</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>372</v>
@@ -5497,22 +5497,22 @@
         <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>1733</v>
       </c>
       <c r="N5" s="7">
-        <v>1108874</v>
+        <v>1027608</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,28 +5524,28 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>4175</v>
+        <v>3914</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>5202</v>
+        <v>4800</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>381</v>
@@ -5554,7 +5554,7 @@
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>9377</v>
+        <v>8714</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>382</v>
@@ -5575,7 +5575,7 @@
         <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>92714</v>
+        <v>83745</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>385</v>
@@ -5590,7 +5590,7 @@
         <v>158</v>
       </c>
       <c r="I7" s="7">
-        <v>100532</v>
+        <v>87714</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>388</v>
@@ -5605,7 +5605,7 @@
         <v>274</v>
       </c>
       <c r="N7" s="7">
-        <v>193246</v>
+        <v>171459</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>391</v>
@@ -5626,7 +5626,7 @@
         <v>647</v>
       </c>
       <c r="D8" s="7">
-        <v>509426</v>
+        <v>483290</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5641,7 +5641,7 @@
         <v>1373</v>
       </c>
       <c r="I8" s="7">
-        <v>802071</v>
+        <v>724491</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -5656,7 +5656,7 @@
         <v>2020</v>
       </c>
       <c r="N8" s="7">
-        <v>1311497</v>
+        <v>1207781</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -5730,7 +5730,7 @@
         <v>1751</v>
       </c>
       <c r="D10" s="7">
-        <v>1864298</v>
+        <v>1808979</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>394</v>
@@ -5745,7 +5745,7 @@
         <v>2695</v>
       </c>
       <c r="I10" s="7">
-        <v>2092682</v>
+        <v>2096481</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>397</v>
@@ -5760,7 +5760,7 @@
         <v>4446</v>
       </c>
       <c r="N10" s="7">
-        <v>3956980</v>
+        <v>3905460</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>400</v>
@@ -5781,46 +5781,46 @@
         <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>24953</v>
+        <v>23960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>403</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>13627</v>
+        <v>12509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
       </c>
       <c r="N11" s="7">
-        <v>38580</v>
+        <v>36468</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,46 +5832,46 @@
         <v>150</v>
       </c>
       <c r="D12" s="7">
-        <v>208163</v>
+        <v>398437</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
       </c>
       <c r="I12" s="7">
-        <v>98850</v>
+        <v>88281</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>283</v>
       </c>
       <c r="N12" s="7">
-        <v>307013</v>
+        <v>486718</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,7 +5883,7 @@
         <v>1924</v>
       </c>
       <c r="D13" s="7">
-        <v>2097414</v>
+        <v>2231376</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -5898,7 +5898,7 @@
         <v>2849</v>
       </c>
       <c r="I13" s="7">
-        <v>2205158</v>
+        <v>2197270</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -5913,7 +5913,7 @@
         <v>4773</v>
       </c>
       <c r="N13" s="7">
-        <v>4302572</v>
+        <v>4428646</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -5987,46 +5987,46 @@
         <v>626</v>
       </c>
       <c r="D15" s="7">
-        <v>615476</v>
+        <v>587480</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H15" s="7">
         <v>938</v>
       </c>
       <c r="I15" s="7">
-        <v>669792</v>
+        <v>620157</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M15" s="7">
         <v>1564</v>
       </c>
       <c r="N15" s="7">
-        <v>1285268</v>
+        <v>1207637</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>215</v>
+        <v>422</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,46 +6038,46 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>28321</v>
+        <v>27285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>20498</v>
+        <v>18618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>48820</v>
+        <v>45903</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,46 +6089,46 @@
         <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>18257</v>
+        <v>17255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>15929</v>
+        <v>14780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>34186</v>
+        <v>32036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6140,7 @@
         <v>671</v>
       </c>
       <c r="D18" s="7">
-        <v>662055</v>
+        <v>632020</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -6155,7 +6155,7 @@
         <v>991</v>
       </c>
       <c r="I18" s="7">
-        <v>706220</v>
+        <v>653556</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -6170,7 +6170,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1368274</v>
+        <v>1285576</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -6244,46 +6244,46 @@
         <v>2903</v>
       </c>
       <c r="D20" s="7">
-        <v>2892310</v>
+        <v>2792090</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>4840</v>
       </c>
       <c r="I20" s="7">
-        <v>3458810</v>
+        <v>3348616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>7743</v>
       </c>
       <c r="N20" s="7">
-        <v>6351122</v>
+        <v>6140705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,46 +6295,46 @@
         <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>57450</v>
+        <v>55159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>446</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
       </c>
       <c r="I21" s="7">
-        <v>39327</v>
+        <v>35927</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
       </c>
       <c r="N21" s="7">
-        <v>96776</v>
+        <v>91086</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>273</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,46 +6346,46 @@
         <v>286</v>
       </c>
       <c r="D22" s="7">
-        <v>319134</v>
+        <v>499437</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
       </c>
       <c r="I22" s="7">
-        <v>215311</v>
+        <v>190775</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>599</v>
       </c>
       <c r="N22" s="7">
-        <v>534445</v>
+        <v>690212</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,7 +6397,7 @@
         <v>3242</v>
       </c>
       <c r="D23" s="7">
-        <v>3268894</v>
+        <v>3346686</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -6412,7 +6412,7 @@
         <v>5213</v>
       </c>
       <c r="I23" s="7">
-        <v>3713448</v>
+        <v>3575317</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -6427,7 +6427,7 @@
         <v>8455</v>
       </c>
       <c r="N23" s="7">
-        <v>6982343</v>
+        <v>6922003</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
